--- a/test_rules_8.xlsx
+++ b/test_rules_8.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eze/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3F7D1D-8F58-B442-A69D-1D1912728242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F41B9A-E41D-4D44-B9BD-A30CED58DE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="500" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="17760" yWindow="13860" windowWidth="28220" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>OriginCity</t>
   </si>
@@ -120,12 +120,18 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>Waycross</t>
+  </si>
+  <si>
+    <t>GA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -477,11 +483,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,16 +519,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -533,36 +539,36 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -573,16 +579,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -593,16 +599,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -613,19 +619,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
@@ -633,21 +639,41 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/test_rules_8.xlsx
+++ b/test_rules_8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eze/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F41B9A-E41D-4D44-B9BD-A30CED58DE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E3B991-C230-D343-B26F-EC47F692AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="13860" windowWidth="28220" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5380" yWindow="9360" windowWidth="28220" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>OriginCity</t>
   </si>
@@ -126,13 +126,19 @@
   </si>
   <si>
     <t>GA</t>
+  </si>
+  <si>
+    <t>Oglesby</t>
+  </si>
+  <si>
+    <t>IL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +151,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,16 +533,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -544,8 +558,8 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -559,22 +573,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -584,31 +598,31 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -619,16 +633,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -639,19 +653,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
@@ -659,21 +673,61 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
